--- a/SeniorProject/FourierBesselParameters.xlsx
+++ b/SeniorProject/FourierBesselParameters.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="11475" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FourierBesselParameters" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>rms [fm]</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>16O</t>
+  </si>
+  <si>
+    <t>58Ni</t>
+  </si>
+  <si>
+    <t>208Pb</t>
   </si>
 </sst>
 </file>
@@ -426,18 +432,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -590,25 +598,25 @@
         <v>4.6607999999999997E-3</v>
       </c>
       <c r="I3">
+        <v>4.6833999999999999E-3</v>
+      </c>
+      <c r="J3">
         <v>5.2042E-3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.8279999999999998E-3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.5661E-3</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.4182000000000001E-3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6.1390000000000001E-4</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.2929E-4</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -748,6 +756,130 @@
       </c>
       <c r="T5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>3.7690000000000001</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>4.4880000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.4755999999999994E-2</v>
+      </c>
+      <c r="F6">
+        <v>-2.7899000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>-3.7016E-2</v>
+      </c>
+      <c r="H6">
+        <v>-7.1915E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.3594E-2</v>
+      </c>
+      <c r="J6">
+        <v>6.6331000000000003E-3</v>
+      </c>
+      <c r="K6">
+        <v>-1.4094999999999999E-3</v>
+      </c>
+      <c r="L6">
+        <v>-1.0141E-3</v>
+      </c>
+      <c r="M6">
+        <v>3.8615999999999998E-4</v>
+      </c>
+      <c r="N6">
+        <v>-1.3871000000000001E-4</v>
+      </c>
+      <c r="O6">
+        <v>4.7787999999999997E-5</v>
+      </c>
+      <c r="P6">
+        <v>-1.5294999999999998E-5</v>
+      </c>
+      <c r="Q6">
+        <v>5.9131000000000002E-6</v>
+      </c>
+      <c r="R6">
+        <v>-6.7880000000000001E-6</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>5.5030000000000001</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.0768000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>-3.9646000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>-2.8218E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.8910000000000002E-2</v>
+      </c>
+      <c r="I7">
+        <v>9.8910000000000005E-3</v>
+      </c>
+      <c r="J7">
+        <v>-1.4388E-2</v>
+      </c>
+      <c r="K7">
+        <v>-9.8262000000000002E-4</v>
+      </c>
+      <c r="L7">
+        <v>7.2578E-3</v>
+      </c>
+      <c r="M7">
+        <v>8.2317999999999996E-4</v>
+      </c>
+      <c r="N7">
+        <v>-1.4823E-3</v>
+      </c>
+      <c r="O7">
+        <v>1.3244999999999999E-4</v>
+      </c>
+      <c r="P7">
+        <v>8.4345000000000006E-5</v>
+      </c>
+      <c r="Q7">
+        <v>4.8417000000000001E-5</v>
+      </c>
+      <c r="R7">
+        <v>-2.6562000000000001E-5</v>
+      </c>
+      <c r="S7">
+        <v>1.4035E-5</v>
+      </c>
+      <c r="T7">
+        <v>-7.1863000000000001E-6</v>
       </c>
     </row>
   </sheetData>
